--- a/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>385000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1309523.809523809</v>
+        <v>2619047.619047619</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>490000</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1480000</v>
+        <v>2095000</v>
       </c>
     </row>
     <row r="12">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="13">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1309523.809523809</v>
+        <v>2619047.619047619</v>
       </c>
     </row>
     <row r="16">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="17">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3800000</v>
       </c>
     </row>
     <row r="19">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="20">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1309523.809523809</v>
+        <v>2619047.619047619</v>
       </c>
     </row>
     <row r="27">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>4350000</v>
       </c>
     </row>
     <row r="28">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1800000</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="30">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="34">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4074523.80952381</v>
+        <v>6374047.619047619</v>
       </c>
     </row>
     <row r="36">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1309523.809523809</v>
+        <v>10619047.61904762</v>
       </c>
     </row>
     <row r="37">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3109523.80952381</v>
+        <v>9919047.619047619</v>
       </c>
     </row>
     <row r="38">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8493571.428571429</v>
+        <v>26912142.85714286</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245000</v>
+        <v>437500</v>
       </c>
     </row>
     <row r="4">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750000</v>
+        <v>1339285.714285714</v>
       </c>
     </row>
     <row r="5">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4000000</v>
+        <v>6330000</v>
       </c>
     </row>
     <row r="6">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4400000</v>
+        <v>6730000</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1060000</v>
+        <v>1860000</v>
       </c>
     </row>
     <row r="12">
@@ -976,53 +976,53 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2000000</v>
+        <v>-13350000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Phạt tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-300000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>750000</v>
+        <v>321428.5714285714</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1339285.714285714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1032,7 +1032,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1042,7 +1042,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1052,17 +1052,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1072,7 +1072,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1082,7 +1082,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1092,7 +1092,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1102,7 +1102,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1112,27 +1112,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1339285.714285714</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1142,7 +1142,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1152,17 +1152,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2200000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1172,7 +1172,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1182,61 +1182,71 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8455000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>750000</v>
+        <v>3046785.714285715</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1950000</v>
+        <v>2860714.285714285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4789285.714285715</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>11155000</v>
+      <c r="B39" t="n">
+        <v>10696785.71428571</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1285,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1285,7 +1295,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>385000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="4">
@@ -1295,7 +1305,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5892857.142857143</v>
+        <v>11785714.28571429</v>
       </c>
     </row>
     <row r="5">
@@ -1375,7 +1385,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-5612000</v>
       </c>
     </row>
     <row r="13">
@@ -1405,7 +1415,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3928571.428571429</v>
+        <v>7857142.857142857</v>
       </c>
     </row>
     <row r="16">
@@ -1515,7 +1525,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5892857.142857143</v>
+        <v>11785714.28571429</v>
       </c>
     </row>
     <row r="27">
@@ -1605,7 +1615,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7477857.142857143</v>
+        <v>8143714.285714285</v>
       </c>
     </row>
     <row r="36">
@@ -1615,7 +1625,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3928571.428571429</v>
+        <v>7857142.857142857</v>
       </c>
     </row>
     <row r="37">
@@ -1625,7 +1635,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5892857.142857143</v>
+        <v>11785714.28571429</v>
       </c>
     </row>
     <row r="38">
@@ -1635,7 +1645,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17299285.71428571</v>
+        <v>27786571.42857143</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1784,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="13">
@@ -1784,7 +1794,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3000000</v>
+        <v>6142857.142857144</v>
       </c>
     </row>
     <row r="14">
@@ -1854,7 +1864,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6000000</v>
+        <v>-9000000</v>
       </c>
     </row>
     <row r="21">
@@ -1974,7 +1984,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1250000</v>
+        <v>-1107142.857142856</v>
       </c>
     </row>
     <row r="33">
@@ -1994,7 +2004,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1250000</v>
+        <v>-1107142.857142856</v>
       </c>
     </row>
   </sheetData>
@@ -2133,7 +2143,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2143,7 +2153,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1875000</v>
+        <v>3928571.428571429</v>
       </c>
     </row>
     <row r="14">
@@ -2213,7 +2223,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1050000</v>
       </c>
     </row>
     <row r="21">
@@ -2333,7 +2343,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1875000</v>
+        <v>2878571.428571429</v>
       </c>
     </row>
     <row r="33">
@@ -2353,7 +2363,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2575000</v>
+        <v>3578571.428571429</v>
       </c>
     </row>
   </sheetData>
@@ -2492,7 +2502,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2502,7 +2512,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1357142.857142857</v>
+        <v>2857142.857142857</v>
       </c>
     </row>
     <row r="14">
@@ -2552,7 +2562,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="19">
@@ -2572,7 +2582,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1000000</v>
+        <v>-3000000</v>
       </c>
     </row>
     <row r="21">
@@ -2692,7 +2702,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>457142.8571428573</v>
+        <v>507142.8571428573</v>
       </c>
     </row>
     <row r="33">
@@ -2712,7 +2722,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>457142.8571428573</v>
+        <v>507142.8571428573</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2871,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -2871,7 +2881,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>385000</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="15">
@@ -2881,7 +2891,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1964285.714285714</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="16">
@@ -2891,7 +2901,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="17">
@@ -2951,7 +2961,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="23">
@@ -3091,7 +3101,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3049285.714285715</v>
+        <v>5685000</v>
       </c>
     </row>
     <row r="37">
@@ -3111,7 +3121,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3049285.714285715</v>
+        <v>5685000</v>
       </c>
     </row>
   </sheetData>
@@ -3250,7 +3260,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -3260,7 +3270,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>280000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="14">
@@ -3270,7 +3280,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>857142.8571428572</v>
+        <v>1928571.428571429</v>
       </c>
     </row>
     <row r="15">
@@ -3280,7 +3290,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1170000</v>
       </c>
     </row>
     <row r="16">
@@ -3340,7 +3350,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="22">
@@ -3460,7 +3470,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1137142.857142857</v>
+        <v>1728571.428571429</v>
       </c>
     </row>
     <row r="34">
@@ -3480,7 +3490,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1137142.857142857</v>
+        <v>1728571.428571429</v>
       </c>
     </row>
   </sheetData>
@@ -3549,7 +3559,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1660000</v>
       </c>
     </row>
     <row r="6">
@@ -3609,7 +3619,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="12">
@@ -3659,7 +3669,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="17">
@@ -3739,7 +3749,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -3749,7 +3759,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="26">
@@ -3759,7 +3769,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2571428.571428571</v>
+        <v>3857142.857142857</v>
       </c>
     </row>
     <row r="27">
@@ -3799,7 +3809,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="31">
@@ -3839,7 +3849,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-1100000</v>
       </c>
     </row>
     <row r="35">
@@ -3849,7 +3859,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2110000</v>
       </c>
     </row>
     <row r="36">
@@ -3859,7 +3869,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="37">
@@ -3869,7 +3879,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5571428.571428571</v>
+        <v>5987142.857142857</v>
       </c>
     </row>
     <row r="38">
@@ -3879,7 +3889,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5571428.571428571</v>
+        <v>13797142.85714286</v>
       </c>
     </row>
   </sheetData>
@@ -4118,7 +4128,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="23">
@@ -4128,7 +4138,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192500</v>
+        <v>332500</v>
       </c>
     </row>
     <row r="24">
@@ -4138,7 +4148,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1080357.142857143</v>
+        <v>1866071.428571428</v>
       </c>
     </row>
     <row r="25">
@@ -4188,7 +4198,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="30">
@@ -4208,7 +4218,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-2750000</v>
       </c>
     </row>
     <row r="32">
@@ -4238,7 +4248,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1472857.142857143</v>
+        <v>-151428.5714285718</v>
       </c>
     </row>
     <row r="35">
@@ -4248,7 +4258,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1472857.142857143</v>
+        <v>-151428.5714285718</v>
       </c>
     </row>
   </sheetData>
@@ -4287,7 +4297,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="3">
@@ -4297,7 +4307,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332500</v>
+        <v>717500</v>
       </c>
     </row>
     <row r="4">
@@ -4307,7 +4317,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1696428.571428572</v>
+        <v>3660714.285714286</v>
       </c>
     </row>
     <row r="5">
@@ -4317,7 +4327,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510000</v>
+        <v>2622000</v>
       </c>
     </row>
     <row r="6">
@@ -4327,7 +4337,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="7">
@@ -4617,7 +4627,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2848928.571428572</v>
+        <v>7550214.285714285</v>
       </c>
     </row>
     <row r="36">
@@ -4647,7 +4657,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2848928.571428572</v>
+        <v>7550214.285714285</v>
       </c>
     </row>
   </sheetData>
@@ -4886,7 +4896,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -4896,7 +4906,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="24">
@@ -4906,7 +4916,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>857142.8571428573</v>
+        <v>1428571.428571429</v>
       </c>
     </row>
     <row r="25">
@@ -4966,7 +4976,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="31">
@@ -4976,7 +4986,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-5000000</v>
+        <v>-5600000</v>
       </c>
     </row>
     <row r="32">
@@ -5006,7 +5016,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3882857.142857143</v>
+        <v>-3721428.571428571</v>
       </c>
     </row>
     <row r="35">
@@ -5016,7 +5026,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3882857.142857143</v>
+        <v>-3721428.571428571</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +5285,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -5285,7 +5295,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1250000</v>
+        <v>1964285.714285714</v>
       </c>
     </row>
     <row r="26">
@@ -5395,7 +5405,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1300000</v>
+        <v>2014285.714285714</v>
       </c>
     </row>
     <row r="37">
@@ -5405,7 +5415,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1300000</v>
+        <v>2014285.714285714</v>
       </c>
     </row>
   </sheetData>
@@ -5644,7 +5654,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -5654,7 +5664,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>210000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="24">
@@ -5664,7 +5674,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>642857.1428571428</v>
+        <v>964285.7142857143</v>
       </c>
     </row>
     <row r="25">
@@ -5764,7 +5774,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>852857.1428571428</v>
+        <v>1279285.714285714</v>
       </c>
     </row>
     <row r="35">
@@ -5774,7 +5784,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852857.1428571428</v>
+        <v>1279285.714285714</v>
       </c>
     </row>
   </sheetData>
@@ -5813,7 +5823,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -5823,7 +5833,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750000.0000000001</v>
+        <v>1821428.571428571</v>
       </c>
     </row>
     <row r="4">
@@ -5923,7 +5933,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500000.0000000001</v>
+        <v>1214285.714285714</v>
       </c>
     </row>
     <row r="14">
@@ -6023,7 +6033,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>750000.0000000001</v>
+        <v>1821428.571428571</v>
       </c>
     </row>
     <row r="24">
@@ -6033,7 +6043,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>670000</v>
       </c>
     </row>
     <row r="25">
@@ -6103,7 +6113,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-4200000</v>
+        <v>-3128571.428571429</v>
       </c>
     </row>
     <row r="32">
@@ -6113,7 +6123,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>500000.0000000001</v>
+        <v>1214285.714285714</v>
       </c>
     </row>
     <row r="33">
@@ -6123,7 +6133,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>750000.0000000001</v>
+        <v>2491428.571428571</v>
       </c>
     </row>
     <row r="34">
@@ -6133,7 +6143,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-2950000</v>
+        <v>577142.857142857</v>
       </c>
     </row>
   </sheetData>
@@ -6172,7 +6182,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -6182,7 +6192,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>928571.4285714285</v>
+        <v>2089285.714285714</v>
       </c>
     </row>
     <row r="4">
@@ -6232,7 +6242,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>500000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="9">
@@ -6262,7 +6272,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-300000</v>
+        <v>-2800000</v>
       </c>
     </row>
     <row r="12">
@@ -6352,7 +6362,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="21">
@@ -6492,7 +6502,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1238571.428571429</v>
+        <v>199285.7142857141</v>
       </c>
     </row>
     <row r="35">
@@ -6502,7 +6512,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="36">
@@ -6522,7 +6532,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1238571.428571429</v>
+        <v>299285.7142857141</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +6571,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -6571,7 +6581,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>785714.2857142858</v>
+        <v>1571428.571428572</v>
       </c>
     </row>
     <row r="4">
@@ -6671,7 +6681,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1178571.428571429</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="14">
@@ -6771,7 +6781,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1178571.428571429</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="24">
@@ -6851,7 +6861,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>785714.2857142858</v>
+        <v>1571428.571428572</v>
       </c>
     </row>
     <row r="32">
@@ -6861,7 +6871,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1178571.428571429</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="33">
@@ -6871,7 +6881,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1178571.428571429</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="34">
@@ -6881,7 +6891,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3142857.142857143</v>
+        <v>6285714.285714286</v>
       </c>
     </row>
   </sheetData>
@@ -6920,7 +6930,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -6930,7 +6940,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2357142.857142857</v>
+        <v>4714285.714285715</v>
       </c>
     </row>
     <row r="4">
@@ -7210,7 +7220,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2357142.857142857</v>
+        <v>4714285.714285715</v>
       </c>
     </row>
     <row r="32">
@@ -7240,7 +7250,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2357142.857142857</v>
+        <v>4714285.714285715</v>
       </c>
     </row>
   </sheetData>
@@ -7279,7 +7289,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -7299,7 +7309,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="5">
@@ -7569,7 +7579,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="32">
@@ -7599,7 +7609,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -7638,7 +7648,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -7648,7 +7658,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2750000</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="4">
@@ -7718,7 +7728,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4000000</v>
+        <v>-6500000</v>
       </c>
     </row>
     <row r="11">
@@ -7928,7 +7938,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1250000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="32">
@@ -7958,7 +7968,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1250000</v>
+        <v>-1000000</v>
       </c>
     </row>
   </sheetData>
@@ -7997,7 +8007,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -8007,7 +8017,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350000</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="4">
@@ -8017,7 +8027,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2857142.857142857</v>
+        <v>6000000.000000001</v>
       </c>
     </row>
     <row r="5">
@@ -8047,7 +8057,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2018000</v>
+        <v>4706000</v>
       </c>
     </row>
     <row r="8">
@@ -8097,7 +8107,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -8107,7 +8117,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>285714.2857142857</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="14">
@@ -8147,7 +8157,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1100000</v>
+        <v>2300000</v>
       </c>
     </row>
     <row r="18">
@@ -8247,7 +8257,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1700000</v>
+        <v>2620000</v>
       </c>
     </row>
     <row r="28">
@@ -8297,7 +8307,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5625142.857142857</v>
+        <v>11841000</v>
       </c>
     </row>
     <row r="33">
@@ -8307,7 +8317,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1385714.285714286</v>
+        <v>3157142.857142857</v>
       </c>
     </row>
     <row r="34">
@@ -8317,7 +8327,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2557142.857142857</v>
+        <v>3477142.857142857</v>
       </c>
     </row>
     <row r="35">
@@ -8327,7 +8337,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9568000</v>
+        <v>18475285.71428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2095000</v>
+        <v>2515000</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3000000</v>
+        <v>5750000</v>
       </c>
     </row>
     <row r="17">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="20">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4350000</v>
+        <v>3950000</v>
       </c>
     </row>
     <row r="28">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2900000</v>
+        <v>4600000</v>
       </c>
     </row>
     <row r="30">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6374047.619047619</v>
+        <v>6794047.619047619</v>
       </c>
     </row>
     <row r="36">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10619047.61904762</v>
+        <v>14269047.61904762</v>
       </c>
     </row>
     <row r="37">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9919047.619047619</v>
+        <v>11219047.61904762</v>
       </c>
     </row>
     <row r="38">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>26912142.85714286</v>
+        <v>32282142.85714286</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1860000</v>
+        <v>1980000</v>
       </c>
     </row>
     <row r="12">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="21">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2200000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="31">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3046785.714285715</v>
+        <v>3166785.714285716</v>
       </c>
     </row>
     <row r="37">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2860714.285714285</v>
+        <v>3760714.285714285</v>
       </c>
     </row>
     <row r="38">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4789285.714285715</v>
+        <v>4389285.714285715</v>
       </c>
     </row>
     <row r="39">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10696785.71428571</v>
+        <v>11316785.71428572</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1050000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="21">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2878571.428571429</v>
+        <v>2928571.428571429</v>
       </c>
     </row>
     <row r="33">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3578571.428571429</v>
+        <v>3628571.428571429</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-2000000</v>
+        <v>-2500000</v>
       </c>
     </row>
     <row r="22">
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1728571.428571429</v>
+        <v>1228571.428571429</v>
       </c>
     </row>
     <row r="34">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1728571.428571429</v>
+        <v>1228571.428571429</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2560000</v>
+        <v>6660000</v>
       </c>
     </row>
     <row r="28">
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1100000</v>
+        <v>-11100000</v>
       </c>
     </row>
     <row r="35">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5987142.857142857</v>
+        <v>-2857.142857141793</v>
       </c>
     </row>
     <row r="38">
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13797142.85714286</v>
+        <v>7807142.857142858</v>
       </c>
     </row>
   </sheetData>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="28">
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>400000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="30">
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-151428.5714285718</v>
+        <v>348571.4285714282</v>
       </c>
     </row>
     <row r="35">
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-151428.5714285718</v>
+        <v>348571.4285714282</v>
       </c>
     </row>
   </sheetData>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2622000</v>
+        <v>2992000</v>
       </c>
     </row>
     <row r="6">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7550214.285714285</v>
+        <v>7880214.285714285</v>
       </c>
     </row>
     <row r="36">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7550214.285714285</v>
+        <v>7880214.285714285</v>
       </c>
     </row>
   </sheetData>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3721428.571428571</v>
+        <v>-3671428.571428571</v>
       </c>
     </row>
     <row r="35">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3721428.571428571</v>
+        <v>-3671428.571428571</v>
       </c>
     </row>
   </sheetData>
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="11">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>199285.7142857141</v>
+        <v>489285.7142857141</v>
       </c>
     </row>
     <row r="35">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>299285.7142857141</v>
+        <v>589285.7142857141</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4706000</v>
+        <v>5122000</v>
       </c>
     </row>
     <row r="8">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2300000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="18">
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2620000</v>
+        <v>3820000</v>
       </c>
     </row>
     <row r="28">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11841000</v>
+        <v>12257000</v>
       </c>
     </row>
     <row r="33">
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3157142.857142857</v>
+        <v>3657142.857142857</v>
       </c>
     </row>
     <row r="34">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3477142.857142857</v>
+        <v>4677142.857142857</v>
       </c>
     </row>
     <row r="35">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18475285.71428572</v>
+        <v>20591285.71428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>770000</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2619047.619047619</v>
+        <v>3095238.095238095</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>900000</v>
+        <v>4950000</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>490000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="8">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1620000</v>
       </c>
     </row>
     <row r="9">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2619047.619047619</v>
+        <v>3095238.095238095</v>
       </c>
     </row>
     <row r="16">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2619047.619047619</v>
+        <v>3095238.095238095</v>
       </c>
     </row>
     <row r="27">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6794047.619047619</v>
+        <v>13360238.0952381</v>
       </c>
     </row>
     <row r="36">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14269047.61904762</v>
+        <v>14745238.0952381</v>
       </c>
     </row>
     <row r="37">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11219047.61904762</v>
+        <v>11695238.0952381</v>
       </c>
     </row>
     <row r="38">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32282142.85714286</v>
+        <v>39800714.28571428</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>437500</v>
+        <v>542500</v>
       </c>
     </row>
     <row r="4">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1339285.714285714</v>
+        <v>1660714.285714286</v>
       </c>
     </row>
     <row r="5">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1620000</v>
       </c>
     </row>
     <row r="9">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-300000</v>
+        <v>-600000</v>
       </c>
     </row>
     <row r="14">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1339285.714285714</v>
+        <v>1660714.285714286</v>
       </c>
     </row>
     <row r="17">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1339285.714285714</v>
+        <v>1660714.285714286</v>
       </c>
     </row>
     <row r="28">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3166785.714285716</v>
+        <v>4913214.285714284</v>
       </c>
     </row>
     <row r="37">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3760714.285714285</v>
+        <v>4082142.857142857</v>
       </c>
     </row>
     <row r="38">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4389285.714285715</v>
+        <v>4710714.285714285</v>
       </c>
     </row>
     <row r="39">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11316785.71428572</v>
+        <v>13706071.42857143</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>770000</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="4">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11785714.28571429</v>
+        <v>13928571.42857143</v>
       </c>
     </row>
     <row r="5">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7857142.857142857</v>
+        <v>9285714.285714285</v>
       </c>
     </row>
     <row r="16">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11785714.28571429</v>
+        <v>13928571.42857143</v>
       </c>
     </row>
     <row r="27">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8143714.285714285</v>
+        <v>10426571.42857143</v>
       </c>
     </row>
     <row r="36">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7857142.857142857</v>
+        <v>9285714.285714285</v>
       </c>
     </row>
     <row r="37">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11785714.28571429</v>
+        <v>13928571.42857143</v>
       </c>
     </row>
     <row r="38">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>27786571.42857143</v>
+        <v>33640857.14285715</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="13">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6142857.142857144</v>
+        <v>6714285.714285715</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1107142.857142856</v>
+        <v>-535714.2857142854</v>
       </c>
     </row>
     <row r="33">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1107142.857142856</v>
+        <v>-535714.2857142854</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3928571.428571429</v>
+        <v>4285714.285714285</v>
       </c>
     </row>
     <row r="14">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2928571.428571429</v>
+        <v>3285714.285714285</v>
       </c>
     </row>
     <row r="33">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3628571.428571429</v>
+        <v>3985714.285714285</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2857142.857142857</v>
+        <v>3142857.142857143</v>
       </c>
     </row>
     <row r="14">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>507142.8571428573</v>
+        <v>792857.1428571432</v>
       </c>
     </row>
     <row r="33">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>507142.8571428573</v>
+        <v>792857.1428571432</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>735000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="15">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3750000</v>
+        <v>3928571.428571429</v>
       </c>
     </row>
     <row r="16">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5685000</v>
+        <v>5898571.428571429</v>
       </c>
     </row>
     <row r="37">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5685000</v>
+        <v>5898571.428571429</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>630000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="14">
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1928571.428571429</v>
+        <v>2142857.142857143</v>
       </c>
     </row>
     <row r="15">
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1228571.428571429</v>
+        <v>1512857.142857143</v>
       </c>
     </row>
     <row r="34">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1228571.428571429</v>
+        <v>1512857.142857143</v>
       </c>
     </row>
   </sheetData>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="6">
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>420000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="26">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3857142.857142857</v>
+        <v>8035714.285714285</v>
       </c>
     </row>
     <row r="27">
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2110000</v>
+        <v>2350000</v>
       </c>
     </row>
     <row r="36">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2857.142857141793</v>
+        <v>4630714.285714285</v>
       </c>
     </row>
     <row r="38">
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7807142.857142858</v>
+        <v>12680714.28571429</v>
       </c>
     </row>
   </sheetData>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="23">
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332500</v>
+        <v>717500</v>
       </c>
     </row>
     <row r="24">
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1866071.428571428</v>
+        <v>4026785.714285714</v>
       </c>
     </row>
     <row r="25">
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>348571.4285714282</v>
+        <v>2894285.714285715</v>
       </c>
     </row>
     <row r="35">
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>348571.4285714282</v>
+        <v>2894285.714285715</v>
       </c>
     </row>
   </sheetData>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>717500</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="4">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3660714.285714286</v>
+        <v>4285714.285714285</v>
       </c>
     </row>
     <row r="5">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2992000</v>
+        <v>3452000</v>
       </c>
     </row>
     <row r="6">
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510000</v>
+        <v>670000</v>
       </c>
     </row>
     <row r="7">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="12">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7880214.285714285</v>
+        <v>9347714.285714285</v>
       </c>
     </row>
     <row r="36">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7880214.285714285</v>
+        <v>9347714.285714285</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>350000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="24">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1428571.428571429</v>
+        <v>3142857.142857143</v>
       </c>
     </row>
     <row r="25">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3671428.571428571</v>
+        <v>-1537142.857142857</v>
       </c>
     </row>
     <row r="35">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3671428.571428571</v>
+        <v>-1537142.857142857</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1964285.714285714</v>
+        <v>4464285.714285715</v>
       </c>
     </row>
     <row r="26">
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2014285.714285714</v>
+        <v>4514285.714285715</v>
       </c>
     </row>
     <row r="37">
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2014285.714285714</v>
+        <v>4514285.714285715</v>
       </c>
     </row>
   </sheetData>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="23">
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315000</v>
+        <v>717500</v>
       </c>
     </row>
     <row r="24">
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964285.7142857143</v>
+        <v>2196428.571428571</v>
       </c>
     </row>
     <row r="25">
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1279285.714285714</v>
+        <v>2913928.571428571</v>
       </c>
     </row>
     <row r="35">
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1279285.714285714</v>
+        <v>2913928.571428571</v>
       </c>
     </row>
   </sheetData>
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -5833,7 +5833,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1821428.571428571</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="4">
@@ -5933,7 +5933,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1214285.714285714</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="14">
@@ -6033,7 +6033,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1821428.571428571</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="24">
@@ -6113,7 +6113,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-3128571.428571429</v>
+        <v>-2700000</v>
       </c>
     </row>
     <row r="32">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1214285.714285714</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="33">
@@ -6133,7 +6133,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2491428.571428571</v>
+        <v>2920000</v>
       </c>
     </row>
     <row r="34">
@@ -6143,7 +6143,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577142.857142857</v>
+        <v>1720000.000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2089285.714285714</v>
+        <v>2553571.428571429</v>
       </c>
     </row>
     <row r="4">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>800000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="9">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="11">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>489285.7142857141</v>
+        <v>803571.4285714286</v>
       </c>
     </row>
     <row r="35">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>589285.7142857141</v>
+        <v>903571.4285714286</v>
       </c>
     </row>
   </sheetData>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1571428.571428572</v>
+        <v>1857142.857142857</v>
       </c>
     </row>
     <row r="4">
@@ -6681,7 +6681,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="14">
@@ -6781,7 +6781,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="24">
@@ -6861,7 +6861,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1571428.571428572</v>
+        <v>1857142.857142857</v>
       </c>
     </row>
     <row r="32">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="33">
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="34">
@@ -6891,7 +6891,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6285714.285714286</v>
+        <v>7428571.428571429</v>
       </c>
     </row>
   </sheetData>
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4714285.714285715</v>
+        <v>5571428.571428572</v>
       </c>
     </row>
     <row r="4">
@@ -7220,7 +7220,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4714285.714285715</v>
+        <v>5571428.571428572</v>
       </c>
     </row>
     <row r="32">
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4714285.714285715</v>
+        <v>5571428.571428572</v>
       </c>
     </row>
   </sheetData>
@@ -7289,7 +7289,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -7648,7 +7648,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5500000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="4">
@@ -7938,7 +7938,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>735000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="4">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6000000.000000001</v>
+        <v>7142857.142857144</v>
       </c>
     </row>
     <row r="5">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5122000</v>
+        <v>5586000</v>
       </c>
     </row>
     <row r="8">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12257000</v>
+        <v>14003857.14285714</v>
       </c>
     </row>
     <row r="33">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20591285.71428572</v>
+        <v>22338142.85714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>321428.5714285714</v>
       </c>
     </row>
     <row r="27">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4710714.285714285</v>
+        <v>5032142.857142857</v>
       </c>
     </row>
     <row r="39">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13706071.42857143</v>
+        <v>14027500</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="13">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6714285.714285715</v>
+        <v>7000000.000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1750000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="15">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-535714.2857142854</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="33">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-535714.2857142854</v>
+        <v>600000</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4285714.285714285</v>
+        <v>4464285.714285715</v>
       </c>
     </row>
     <row r="14">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3285714.285714285</v>
+        <v>3464285.714285715</v>
       </c>
     </row>
     <row r="33">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3985714.285714285</v>
+        <v>4164285.714285715</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3142857.142857143</v>
+        <v>3285714.285714286</v>
       </c>
     </row>
     <row r="14">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>650000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="19">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>792857.1428571432</v>
+        <v>985714.2857142859</v>
       </c>
     </row>
     <row r="33">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>792857.1428571432</v>
+        <v>985714.2857142859</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>770000</v>
+        <v>805000</v>
       </c>
     </row>
     <row r="15">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3928571.428571429</v>
+        <v>4107142.857142857</v>
       </c>
     </row>
     <row r="16">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5898571.428571429</v>
+        <v>6112142.857142857</v>
       </c>
     </row>
     <row r="37">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5898571.428571429</v>
+        <v>6112142.857142857</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700000</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="14">
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2142857.142857143</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="15">
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1512857.142857143</v>
+        <v>1655000</v>
       </c>
     </row>
     <row r="34">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1512857.142857143</v>
+        <v>1655000</v>
       </c>
     </row>
   </sheetData>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="12">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9347714.285714285</v>
+        <v>9327714.285714285</v>
       </c>
     </row>
     <row r="36">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9347714.285714285</v>
+        <v>9327714.285714285</v>
       </c>
     </row>
   </sheetData>
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="11">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803571.4285714286</v>
+        <v>823571.4285714286</v>
       </c>
     </row>
     <row r="35">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903571.4285714286</v>
+        <v>923571.4285714286</v>
       </c>
     </row>
   </sheetData>
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>857142.8571428573</v>
+        <v>1142857.142857143</v>
       </c>
     </row>
     <row r="14">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2800000</v>
+        <v>3350000</v>
       </c>
     </row>
     <row r="18">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>857142.8571428573</v>
+        <v>1428571.428571429</v>
       </c>
     </row>
     <row r="24">
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3657142.857142857</v>
+        <v>4492857.142857143</v>
       </c>
     </row>
     <row r="34">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4677142.857142857</v>
+        <v>5248571.428571429</v>
       </c>
     </row>
     <row r="35">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22338142.85714286</v>
+        <v>23745285.71428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4950000</v>
+        <v>11065000</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770000</v>
+        <v>1370000</v>
       </c>
     </row>
     <row r="8">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-500000</v>
+        <v>-665000</v>
       </c>
     </row>
     <row r="13">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13360238.0952381</v>
+        <v>19910238.0952381</v>
       </c>
     </row>
     <row r="36">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39800714.28571428</v>
+        <v>46350714.28571429</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6730000</v>
+        <v>8930000</v>
       </c>
     </row>
     <row r="8">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>321428.5714285714</v>
+        <v>642857.1428571428</v>
       </c>
     </row>
     <row r="27">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1800000</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="31">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4913214.285714284</v>
+        <v>7113214.285714284</v>
       </c>
     </row>
     <row r="37">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5032142.857142857</v>
+        <v>6853571.428571429</v>
       </c>
     </row>
     <row r="39">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14027500</v>
+        <v>18048928.57142857</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="13">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7000000.000000001</v>
+        <v>7285714.285714286</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>600000</v>
+        <v>885714.2857142873</v>
       </c>
     </row>
     <row r="33">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>600000</v>
+        <v>885714.2857142873</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4464285.714285715</v>
+        <v>4642857.142857143</v>
       </c>
     </row>
     <row r="14">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3464285.714285715</v>
+        <v>4642857.142857143</v>
       </c>
     </row>
     <row r="33">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4164285.714285715</v>
+        <v>5342857.142857143</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3285714.285714286</v>
+        <v>3428571.428571429</v>
       </c>
     </row>
     <row r="14">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>985714.2857142859</v>
+        <v>1128571.428571429</v>
       </c>
     </row>
     <row r="33">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>985714.2857142859</v>
+        <v>1128571.428571429</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>805000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="15">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4107142.857142857</v>
+        <v>4285714.285714285</v>
       </c>
     </row>
     <row r="16">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6112142.857142857</v>
+        <v>6325714.285714285</v>
       </c>
     </row>
     <row r="37">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6112142.857142857</v>
+        <v>6325714.285714285</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>735000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="14">
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2250000</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="15">
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1655000</v>
+        <v>1797142.857142857</v>
       </c>
     </row>
     <row r="34">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1655000</v>
+        <v>1797142.857142857</v>
       </c>
     </row>
   </sheetData>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1900000</v>
+        <v>2080000</v>
       </c>
     </row>
     <row r="6">
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>875000</v>
+        <v>945000</v>
       </c>
     </row>
     <row r="26">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8035714.285714285</v>
+        <v>8678571.428571429</v>
       </c>
     </row>
     <row r="27">
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6660000</v>
+        <v>8160000</v>
       </c>
     </row>
     <row r="28">
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-11100000</v>
+        <v>-10000000</v>
       </c>
     </row>
     <row r="35">
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2350000</v>
+        <v>2530000</v>
       </c>
     </row>
     <row r="36">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4630714.285714285</v>
+        <v>7943571.428571429</v>
       </c>
     </row>
     <row r="38">
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12680714.28571429</v>
+        <v>16173571.42857143</v>
       </c>
     </row>
   </sheetData>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="23">
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>717500</v>
+        <v>822500</v>
       </c>
     </row>
     <row r="24">
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4026785.714285714</v>
+        <v>4616071.428571428</v>
       </c>
     </row>
     <row r="25">
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>500000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="30">
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2750000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="32">
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2894285.714285715</v>
+        <v>5438571.428571428</v>
       </c>
     </row>
     <row r="35">
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2894285.714285715</v>
+        <v>5438571.428571428</v>
       </c>
     </row>
   </sheetData>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3452000</v>
+        <v>3602000</v>
       </c>
     </row>
     <row r="6">
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>670000</v>
+        <v>790000</v>
       </c>
     </row>
     <row r="7">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9327714.285714285</v>
+        <v>9597714.285714285</v>
       </c>
     </row>
     <row r="36">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9327714.285714285</v>
+        <v>9597714.285714285</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>770000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="24">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3142857.142857143</v>
+        <v>3571428.571428572</v>
       </c>
     </row>
     <row r="25">
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-5600000</v>
+        <v>-5000000</v>
       </c>
     </row>
     <row r="32">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1537142.857142857</v>
+        <v>-403571.4285714282</v>
       </c>
     </row>
     <row r="35">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1537142.857142857</v>
+        <v>-403571.4285714282</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4464285.714285715</v>
+        <v>4821428.571428572</v>
       </c>
     </row>
     <row r="26">
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4514285.714285715</v>
+        <v>4871428.571428572</v>
       </c>
     </row>
     <row r="37">
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4514285.714285715</v>
+        <v>4871428.571428572</v>
       </c>
     </row>
   </sheetData>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="23">
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>717500</v>
+        <v>822500</v>
       </c>
     </row>
     <row r="24">
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2196428.571428571</v>
+        <v>2517857.142857143</v>
       </c>
     </row>
     <row r="25">
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2913928.571428571</v>
+        <v>3340357.142857143</v>
       </c>
     </row>
     <row r="35">
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2913928.571428571</v>
+        <v>3340357.142857143</v>
       </c>
     </row>
   </sheetData>
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="9">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>823571.4285714286</v>
+        <v>923571.4285714286</v>
       </c>
     </row>
     <row r="35">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923571.4285714286</v>
+        <v>1023571.428571429</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5586000</v>
+        <v>7386000</v>
       </c>
     </row>
     <row r="8">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14003857.14285714</v>
+        <v>15803857.14285714</v>
       </c>
     </row>
     <row r="33">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23745285.71428572</v>
+        <v>25545285.71428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/Tổng hợp lương 8 - 2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,73 +477,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>910000</v>
+        <v>3571428.571428571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3095238.095238095</v>
+        <v>11520000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11065000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1825000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1370000</v>
+        <v>1620000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1620000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -553,37 +553,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4041000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2515000</v>
+        <v>-665000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-665000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -593,67 +593,67 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3571428.571428571</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3095238.095238095</v>
+        <v>5750000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3800000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3800000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -663,7 +663,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -673,7 +673,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -683,7 +683,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -703,57 +703,57 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3571428.571428571</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3095238.095238095</v>
+        <v>5400000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3950000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4600000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -763,7 +763,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -773,71 +773,61 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>21912428.57142857</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19910238.0952381</v>
+        <v>15221428.57142857</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14745238.0952381</v>
+        <v>13621428.57142857</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11695238.0952381</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>46350714.28571429</v>
+        <v>50755285.71428572</v>
       </c>
     </row>
   </sheetData>
@@ -846,415 +836,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Danh mục lương</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Tổng công tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>542500</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1660714.285714286</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6330000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8930000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1620000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1980000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ứng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-13350000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Phạt tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-600000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Tổng công tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>321428.5714285714</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1660714.285714286</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>642857.1428571428</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1660714.285714286</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>3300000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tổng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>7113214.285714284</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>4082142.857142857</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>6853571.428571429</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>18048928.57142857</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1275,7 +856,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -1285,63 +866,63 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>910000</v>
+        <v>1982142.857142857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13928571.42857143</v>
+        <v>6330000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11430000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1620000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1351,7 +932,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1361,31 +942,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1000000</v>
+        <v>-13350000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Phạt tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-5612000</v>
+        <v>-600000</v>
       </c>
     </row>
     <row r="13">
@@ -1395,7 +976,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1405,7 +986,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>321428.5714285714</v>
       </c>
     </row>
     <row r="15">
@@ -1415,7 +996,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9285714.285714285</v>
+        <v>1982142.857142857</v>
       </c>
     </row>
     <row r="16">
@@ -1455,7 +1036,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="20">
@@ -1505,7 +1086,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1515,7 +1096,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>642857.1428571428</v>
       </c>
     </row>
     <row r="26">
@@ -1525,7 +1106,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13928571.42857143</v>
+        <v>1982142.857142857</v>
       </c>
     </row>
     <row r="27">
@@ -1555,7 +1136,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="30">
@@ -1595,7 +1176,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="34">
@@ -1615,7 +1196,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10426571.42857143</v>
+        <v>9812142.857142858</v>
       </c>
     </row>
     <row r="36">
@@ -1625,7 +1206,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9285714.285714285</v>
+        <v>4403571.428571428</v>
       </c>
     </row>
     <row r="37">
@@ -1635,7 +1216,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13928571.42857143</v>
+        <v>7175000</v>
       </c>
     </row>
     <row r="38">
@@ -1645,7 +1226,396 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>33640857.14285715</v>
+        <v>21390714.28571429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục lương</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tổng công tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16071428.57142857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ứng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-5612000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tổng công tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lương công tác tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10714285.71428571</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ứng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Tổng công tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lương công tác tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16071428.57142857</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11659428.57142857</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10714285.71428571</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16071428.57142857</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại HỆ THỐNG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>38445142.85714285</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1754,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="13">
@@ -1794,7 +1764,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7285714.285714286</v>
+        <v>7857142.857142858</v>
       </c>
     </row>
     <row r="14">
@@ -1864,7 +1834,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-9000000</v>
+        <v>-18193000</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +1954,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>885714.2857142873</v>
+        <v>-7735857.142857142</v>
       </c>
     </row>
     <row r="33">
@@ -2004,7 +1974,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>885714.2857142873</v>
+        <v>-7735857.142857142</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +2113,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -2153,7 +2123,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4642857.142857143</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="14">
@@ -2273,7 +2243,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="26">
@@ -2343,7 +2313,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4642857.142857143</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="33">
@@ -2353,7 +2323,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="34">
@@ -2363,7 +2333,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5342857.142857143</v>
+        <v>5940000</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2472,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -2512,7 +2482,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3428571.428571429</v>
+        <v>3714285.714285715</v>
       </c>
     </row>
     <row r="14">
@@ -2702,7 +2672,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1128571.428571429</v>
+        <v>1414285.714285715</v>
       </c>
     </row>
     <row r="33">
@@ -2722,7 +2692,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1128571.428571429</v>
+        <v>1414285.714285715</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2841,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2881,7 +2851,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>840000</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="15">
@@ -2891,7 +2861,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4285714.285714285</v>
+        <v>4642857.142857143</v>
       </c>
     </row>
     <row r="16">
@@ -2921,7 +2891,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="19">
@@ -3101,7 +3071,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6325714.285714285</v>
+        <v>7052857.142857143</v>
       </c>
     </row>
     <row r="37">
@@ -3121,7 +3091,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6325714.285714285</v>
+        <v>7052857.142857143</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3230,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -3270,7 +3240,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>770000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="14">
@@ -3280,7 +3250,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2357142.857142857</v>
+        <v>2571428.571428571</v>
       </c>
     </row>
     <row r="15">
@@ -3470,7 +3440,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1797142.857142857</v>
+        <v>2081428.571428571</v>
       </c>
     </row>
     <row r="34">
@@ -3490,7 +3460,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1797142.857142857</v>
+        <v>2081428.571428571</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3719,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3759,7 +3729,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>945000</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="26">
@@ -3769,7 +3739,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8678571.428571429</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="27">
@@ -3789,7 +3759,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="29">
@@ -3879,7 +3849,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7943571.428571429</v>
+        <v>8330000</v>
       </c>
     </row>
     <row r="38">
@@ -3889,7 +3859,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16173571.42857143</v>
+        <v>16560000</v>
       </c>
     </row>
   </sheetData>
@@ -4218,7 +4188,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1000000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="32">
@@ -4248,7 +4218,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5438571.428571428</v>
+        <v>4438571.428571428</v>
       </c>
     </row>
     <row r="35">
@@ -4258,7 +4228,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5438571.428571428</v>
+        <v>4438571.428571428</v>
       </c>
     </row>
   </sheetData>
@@ -4272,7 +4242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,53 +4267,53 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4285714.285714285</v>
+        <v>4222000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3602000</v>
+        <v>790000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>790000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4353,7 +4323,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4363,7 +4333,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4373,27 +4343,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4403,7 +4373,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4413,27 +4383,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4443,7 +4413,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4453,7 +4423,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4463,7 +4433,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4473,7 +4443,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4483,7 +4453,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4493,7 +4463,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4503,7 +4473,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4513,7 +4483,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4523,27 +4493,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4553,7 +4523,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4563,7 +4533,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4573,7 +4543,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4583,7 +4553,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4593,7 +4563,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4603,7 +4573,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4613,27 +4583,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>10092000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9597714.285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -4643,21 +4613,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>9597714.285714285</v>
+        <v>10092000</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +4856,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -4906,7 +4866,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>875000</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="24">
@@ -4916,7 +4876,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3571428.571428572</v>
+        <v>3714285.714285715</v>
       </c>
     </row>
     <row r="25">
@@ -5016,7 +4976,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-403571.4285714282</v>
+        <v>-225714.2857142854</v>
       </c>
     </row>
     <row r="35">
@@ -5026,7 +4986,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-403571.4285714282</v>
+        <v>-225714.2857142854</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5245,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -5295,7 +5255,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4821428.571428572</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="26">
@@ -5405,7 +5365,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4871428.571428572</v>
+        <v>5050000</v>
       </c>
     </row>
     <row r="37">
@@ -5415,7 +5375,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4871428.571428572</v>
+        <v>5050000</v>
       </c>
     </row>
   </sheetData>
@@ -5823,7 +5783,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -5833,7 +5793,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2250000</v>
+        <v>2678571.428571429</v>
       </c>
     </row>
     <row r="4">
@@ -5843,7 +5803,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4125000</v>
       </c>
     </row>
     <row r="5">
@@ -5933,7 +5893,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1500000</v>
+        <v>1785714.285714286</v>
       </c>
     </row>
     <row r="14">
@@ -6033,7 +5993,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2250000</v>
+        <v>2678571.428571429</v>
       </c>
     </row>
     <row r="24">
@@ -6043,7 +6003,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>670000</v>
+        <v>1005000</v>
       </c>
     </row>
     <row r="25">
@@ -6113,7 +6073,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2700000</v>
+        <v>1853571.428571429</v>
       </c>
     </row>
     <row r="32">
@@ -6123,7 +6083,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1500000</v>
+        <v>1785714.285714286</v>
       </c>
     </row>
     <row r="33">
@@ -6133,7 +6093,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2920000</v>
+        <v>3683571.428571429</v>
       </c>
     </row>
     <row r="34">
@@ -6143,7 +6103,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1720000.000000001</v>
+        <v>7322857.142857144</v>
       </c>
     </row>
   </sheetData>
@@ -6157,7 +6117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6182,7 +6142,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -6192,7 +6152,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2553571.428571429</v>
+        <v>3714285.714285715</v>
       </c>
     </row>
     <row r="4">
@@ -6242,7 +6202,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="9">
@@ -6278,17 +6238,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Phí sinh hoạt tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-750000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -6298,27 +6258,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6328,7 +6288,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6338,7 +6298,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -6348,7 +6308,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -6358,27 +6318,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -6388,7 +6348,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -6398,7 +6358,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -6408,27 +6368,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -6438,7 +6398,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -6448,7 +6408,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -6458,7 +6418,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -6468,7 +6428,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -6478,7 +6438,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -6488,7 +6448,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -6498,41 +6458,51 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>923571.4285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100000</v>
+        <v>1434285.714285715</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>1023571.428571429</v>
+      <c r="B38" t="n">
+        <v>1534285.714285715</v>
       </c>
     </row>
   </sheetData>
@@ -6571,7 +6541,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -6581,7 +6551,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1857142.857142857</v>
+        <v>2142857.142857143</v>
       </c>
     </row>
     <row r="4">
@@ -6681,7 +6651,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2785714.285714286</v>
+        <v>3214285.714285715</v>
       </c>
     </row>
     <row r="14">
@@ -6781,7 +6751,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2785714.285714286</v>
+        <v>3214285.714285715</v>
       </c>
     </row>
     <row r="24">
@@ -6861,7 +6831,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1857142.857142857</v>
+        <v>2142857.142857143</v>
       </c>
     </row>
     <row r="32">
@@ -6871,7 +6841,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2785714.285714286</v>
+        <v>3214285.714285715</v>
       </c>
     </row>
     <row r="33">
@@ -6881,7 +6851,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2785714.285714286</v>
+        <v>3214285.714285715</v>
       </c>
     </row>
     <row r="34">
@@ -6891,7 +6861,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7428571.428571429</v>
+        <v>8571428.571428573</v>
       </c>
     </row>
   </sheetData>
@@ -6930,7 +6900,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -6940,7 +6910,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5571428.571428572</v>
+        <v>6428571.428571429</v>
       </c>
     </row>
     <row r="4">
@@ -7220,7 +7190,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5571428.571428572</v>
+        <v>6428571.428571429</v>
       </c>
     </row>
     <row r="32">
@@ -7250,7 +7220,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5571428.571428572</v>
+        <v>6428571.428571429</v>
       </c>
     </row>
   </sheetData>
@@ -7289,7 +7259,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -7299,7 +7269,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
     </row>
     <row r="4">
@@ -7579,7 +7549,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200000</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="32">
@@ -7609,7 +7579,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200000</v>
+        <v>3200000</v>
       </c>
     </row>
   </sheetData>
@@ -7648,7 +7618,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -7658,7 +7628,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6500000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="4">
@@ -7938,7 +7908,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="32">
@@ -7968,7 +7938,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8007,63 +7977,63 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>875000</v>
+        <v>8285714.285714286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7142857.142857144</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8164000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7386000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -8073,7 +8043,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -8083,57 +8053,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-500000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1142857.142857143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1142857.142857143</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8143,27 +8113,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3350000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3350000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -8173,7 +8143,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -8183,7 +8153,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -8193,47 +8163,47 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>1428571.428571429</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1428571.428571429</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -8243,27 +8213,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3820000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3820000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -8273,7 +8243,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -8283,7 +8253,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -8293,51 +8263,41 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16939714.28571429</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15803857.14285714</v>
+        <v>4492857.142857143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4492857.142857143</v>
+        <v>5248571.428571429</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5248571.428571429</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>25545285.71428572</v>
+        <v>26681142.85714286</v>
       </c>
     </row>
   </sheetData>
